--- a/AAnjum-Ass1.xlsx
+++ b/AAnjum-Ass1.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anush\School\Classes\Junior year\Spring 25\Database Design and Management\Assignment 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34796E7-529B-4295-967F-D730BC1CFF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -85,25 +94,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -114,7 +125,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,7 +135,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -138,40 +155,42 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -180,9 +199,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1000125" cy="333375"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -199,12 +224,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -241,9 +266,15 @@
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1200150" cy="457200"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvPr id="4" name="Shape 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -260,12 +291,12 @@
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
-        <a:bodyPr anchorCtr="0" anchor="t" bIns="91425" lIns="91425" spcFirstLastPara="1" rIns="91425" wrap="square" tIns="91425">
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr indent="0" lvl="0" marL="0" rtl="0" algn="l">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
             <a:spcBef>
               <a:spcPts val="0"/>
             </a:spcBef>
@@ -297,23 +328,33 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4314825" cy="3238500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="2" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="152400"/>
+          <a:ext cx="4314825" cy="3238500"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -325,23 +366,33 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4314825" cy="3238500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Image"/>
+        <xdr:cNvPr id="5" name="image1.png" title="Image">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6105525" y="123825"/>
+          <a:ext cx="4314825" cy="3238500"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -354,7 +405,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -544,20 +595,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B4:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -597,9 +657,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
@@ -608,27 +668,27 @@
         <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>101.0</v>
+        <v>101</v>
       </c>
       <c r="H6" s="4">
-        <v>45658.0</v>
+        <v>45658</v>
       </c>
       <c r="I6" s="5">
         <v>12.5</v>
       </c>
       <c r="L6" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -637,27 +697,27 @@
         <v>15</v>
       </c>
       <c r="G7" s="3">
-        <v>102.0</v>
+        <v>102</v>
       </c>
       <c r="H7" s="4">
-        <v>45666.0</v>
+        <v>45666</v>
       </c>
       <c r="I7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="3">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
@@ -666,16 +726,16 @@
         <v>18</v>
       </c>
       <c r="G8" s="3">
-        <v>103.0</v>
+        <v>103</v>
       </c>
       <c r="H8" s="4">
-        <v>45672.0</v>
+        <v>45672</v>
       </c>
       <c r="I8" s="5">
         <v>8.75</v>
       </c>
       <c r="L8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>19</v>
@@ -684,9 +744,9 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>20</v>
@@ -695,16 +755,16 @@
         <v>21</v>
       </c>
       <c r="G9" s="3">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="H9" s="4">
-        <v>45674.0</v>
+        <v>45674</v>
       </c>
       <c r="I9" s="5">
         <v>25.5</v>
       </c>
       <c r="L9" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>22</v>
@@ -714,6 +774,8 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>